--- a/medicine/Mort/Cimetière_de_Saint-Maurice/Cimetière_de_Saint-Maurice.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Maurice/Cimetière_de_Saint-Maurice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Maurice</t>
+          <t>Cimetière_de_Saint-Maurice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Saint-Maurice est le cimetière municipal de la ville de Saint-Maurice (Val-de-Marne), en banlieue parisienne. Il est accessible par la route de la Terrasse, située à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Maurice</t>
+          <t>Cimetière_de_Saint-Maurice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Saint-Maurice a ouvert en 1852. En 1853 y a été transféré l'ancien cimetière qui entourait l'église Saint-Maurice[1]. Il a été agrandi en 1881 et en 1892. Aménagé en pente, il offre de ses terrasses un beau panorama à proximité de Paris et du bois de Vincennes[2]. Plusieurs sépultures sont inscrites à l'inventaire pour leur intérêt artistique ou historique (chapelle aux torches renversées[3]; tombe d'Abel-Adrien Colas avec médaillon[4], matelot canonnier mort à cause de l'explosion du cuirassé La Liberté dans le port de Toulon le 25 septembre 1911; tombe de Jean-Joseph Moulin avec médaillon, second maître-mécanicien une des vingt-sept victimes de la catastrophe du sous-marin Le Pluviôse à Calais, le 26 mai 1910, médaillon; tombeau du Dr Decorse[5]; tombe de l'abbé Fournier, curé de Saint-Maurice[6]; monument sépulcral de la famille Dubois[7]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Saint-Maurice a ouvert en 1852. En 1853 y a été transféré l'ancien cimetière qui entourait l'église Saint-Maurice. Il a été agrandi en 1881 et en 1892. Aménagé en pente, il offre de ses terrasses un beau panorama à proximité de Paris et du bois de Vincennes. Plusieurs sépultures sont inscrites à l'inventaire pour leur intérêt artistique ou historique (chapelle aux torches renversées; tombe d'Abel-Adrien Colas avec médaillon, matelot canonnier mort à cause de l'explosion du cuirassé La Liberté dans le port de Toulon le 25 septembre 1911; tombe de Jean-Joseph Moulin avec médaillon, second maître-mécanicien une des vingt-sept victimes de la catastrophe du sous-marin Le Pluviôse à Calais, le 26 mai 1910, médaillon; tombeau du Dr Decorse; tombe de l'abbé Fournier, curé de Saint-Maurice; monument sépulcral de la famille Dubois).
 Un grand monument aux morts des guerres de 1914-1918 et de 1940 se trouve le long d'un des remparts. Un petit monument aux morts est dédié plus loin aux morts de la Libération de 1944-1945, de la guerre d'Indochine et de la guerre d'Algérie.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-Maurice</t>
+          <t>Cimetière_de_Saint-Maurice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Pierre-Jules Decorse (1842-1886), chirurgien, maire de Saint-Maurice (médaillon par Capy)
 Marius Kowalski (1886-1963), chef d'orchestre
